--- a/Documentacion/Product backlog/Product Backlog v1.3/Historias de Usuario versión 1.3.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.3/Historias de Usuario versión 1.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DB460-FBB1-419B-BB27-7D2C2F93650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65245CB8-5272-48ED-BC5C-C79A401670F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,11 +870,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,24 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:GX252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,26 +1299,26 @@
   <sheetData>
     <row r="1" spans="2:206" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:206" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:206" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -1517,14 +1517,14 @@
       <c r="GX3" s="9"/>
     </row>
     <row r="4" spans="2:206" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1945,22 +1945,22 @@
       <c r="GX5" s="9"/>
     </row>
     <row r="6" spans="2:206" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -2167,12 +2167,12 @@
       <c r="GX6" s="9"/>
     </row>
     <row r="7" spans="2:206" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="14" t="s">
         <v>87</v>
       </c>
@@ -2377,12 +2377,12 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="2:206" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="14" t="s">
         <v>88</v>
       </c>
@@ -2588,8 +2588,8 @@
     </row>
     <row r="9" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -2797,22 +2797,22 @@
       <c r="GX9" s="9"/>
     </row>
     <row r="10" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -3019,12 +3019,12 @@
       <c r="GX10" s="9"/>
     </row>
     <row r="11" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="14" t="s">
         <v>90</v>
       </c>
@@ -3229,12 +3229,12 @@
       <c r="GX11" s="9"/>
     </row>
     <row r="12" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="14" t="s">
         <v>91</v>
       </c>
@@ -3440,8 +3440,8 @@
     </row>
     <row r="13" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -3649,22 +3649,22 @@
       <c r="GX13" s="9"/>
     </row>
     <row r="14" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="23" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="17" t="s">
@@ -3871,12 +3871,12 @@
       <c r="GX14" s="9"/>
     </row>
     <row r="15" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="14" t="s">
         <v>93</v>
       </c>
@@ -4081,12 +4081,12 @@
       <c r="GX15" s="9"/>
     </row>
     <row r="16" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="14" t="s">
         <v>94</v>
       </c>
@@ -4292,8 +4292,8 @@
     </row>
     <row r="17" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -4501,22 +4501,22 @@
       <c r="GX17" s="9"/>
     </row>
     <row r="18" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="17" t="s">
@@ -4723,12 +4723,12 @@
       <c r="GX18" s="9"/>
     </row>
     <row r="19" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4933,12 +4933,12 @@
       <c r="GX19" s="9"/>
     </row>
     <row r="20" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5144,8 +5144,8 @@
     </row>
     <row r="21" spans="2:206" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5353,22 +5353,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="2:206" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="17" t="s">
@@ -5575,12 +5575,12 @@
       <c r="GX22" s="9"/>
     </row>
     <row r="23" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="14" t="s">
         <v>99</v>
       </c>
@@ -5785,12 +5785,12 @@
       <c r="GX23" s="9"/>
     </row>
     <row r="24" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="14" t="s">
         <v>100</v>
       </c>
@@ -5995,12 +5995,12 @@
       <c r="GX24" s="9"/>
     </row>
     <row r="25" spans="2:206" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="16" t="s">
         <v>125</v>
       </c>
@@ -6205,22 +6205,22 @@
       <c r="GX25" s="9"/>
     </row>
     <row r="26" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="17" t="s">
@@ -6427,12 +6427,12 @@
       <c r="GX26" s="9"/>
     </row>
     <row r="27" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="14" t="s">
         <v>102</v>
       </c>
@@ -6638,8 +6638,8 @@
     </row>
     <row r="28" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -6847,22 +6847,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="17" t="s">
@@ -7070,8 +7070,8 @@
     </row>
     <row r="30" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -7279,22 +7279,22 @@
       <c r="GX30" s="9"/>
     </row>
     <row r="31" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="23" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -7501,12 +7501,12 @@
       <c r="GX31" s="9"/>
     </row>
     <row r="32" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="14" t="s">
         <v>106</v>
       </c>
@@ -7712,8 +7712,8 @@
     </row>
     <row r="33" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -7921,22 +7921,22 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="17" t="s">
@@ -8144,8 +8144,8 @@
     </row>
     <row r="35" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -8353,22 +8353,22 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="2:206" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H36" s="17" t="s">
@@ -8576,8 +8576,8 @@
     </row>
     <row r="37" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -8785,22 +8785,22 @@
       <c r="GX37" s="9"/>
     </row>
     <row r="38" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="23" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="17" t="s">
@@ -9008,8 +9008,8 @@
     </row>
     <row r="39" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -9217,22 +9217,22 @@
       <c r="GX39" s="9"/>
     </row>
     <row r="40" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H40" s="17" t="s">
@@ -9440,8 +9440,8 @@
     </row>
     <row r="41" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -9649,22 +9649,22 @@
       <c r="GX41" s="9"/>
     </row>
     <row r="42" spans="2:206" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="23" t="s">
         <v>31</v>
       </c>
       <c r="H42" s="17" t="s">
@@ -9872,8 +9872,8 @@
     </row>
     <row r="43" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -10103,7 +10103,7 @@
         <v>117</v>
       </c>
       <c r="I44" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -10303,29 +10303,29 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="23" t="s">
         <v>85</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>118</v>
       </c>
       <c r="I45" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -10525,17 +10525,17 @@
       <c r="GX45" s="9"/>
     </row>
     <row r="46" spans="2:206" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="14" t="s">
         <v>119</v>
       </c>
       <c r="I46" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -52306,75 +52306,6 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="B2:I4"/>
@@ -52391,6 +52322,75 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I46">
     <cfRule type="expression" dxfId="0" priority="1">
